--- a/4.1 Assignment.xlsx
+++ b/4.1 Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacernst/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacernst/Desktop/Classes/Software Engineering/4.1Repo/SoftwareEngineering4.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E15F54-576A-6E4C-914D-FF6538645EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDD52F9-F781-3E46-84DB-3C5D22950270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="-2880" windowWidth="28040" windowHeight="17440" xr2:uid="{FD950060-4595-CB49-949E-38A9083A388D}"/>
+    <workbookView xWindow="30680" yWindow="-2660" windowWidth="28040" windowHeight="17440" xr2:uid="{FD950060-4595-CB49-949E-38A9083A388D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Senge</t>
-  </si>
-  <si>
-    <t>Rouse</t>
-  </si>
-  <si>
-    <t>Sweeney and Sterman</t>
-  </si>
-  <si>
-    <t>Hopper and Stave</t>
-  </si>
-  <si>
-    <t>Kopainsky, Alessi, and Davidsen</t>
-  </si>
-  <si>
-    <t>Squires, Wade, Dominick, and Gelosh</t>
-  </si>
-  <si>
-    <t>Forrester</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Wholes Rather than parts</t>
   </si>
@@ -82,6 +58,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Cambridge Analytica’s use of fake social media accounts to influence the 2016 presidential vote in the United States of¬¬¬ America</t>
+  </si>
+  <si>
+    <t>Ethical Quandry</t>
   </si>
 </sst>
 </file>
@@ -96,18 +78,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -145,16 +121,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +445,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -482,73 +454,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="100" customHeight="1">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -559,15 +525,9 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -578,105 +538,59 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
